--- a/abc.xlsx
+++ b/abc.xlsx
@@ -1406,8 +1406,8 @@
   <sheetPr/>
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
